--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/52.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/52.xlsx
@@ -479,13 +479,13 @@
         <v>-9.386994427324552</v>
       </c>
       <c r="E2" t="n">
-        <v>-17.56981967261086</v>
+        <v>-17.56060878367359</v>
       </c>
       <c r="F2" t="n">
-        <v>3.556063011008454</v>
+        <v>3.575364810119035</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.295781787208808</v>
+        <v>-9.337695243078871</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-9.4071839203471</v>
       </c>
       <c r="E3" t="n">
-        <v>-18.18578075876661</v>
+        <v>-18.18079397176236</v>
       </c>
       <c r="F3" t="n">
-        <v>3.440829119155269</v>
+        <v>3.462409195465832</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.149145804249429</v>
+        <v>-9.187372948941837</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-9.38292650804099</v>
       </c>
       <c r="E4" t="n">
-        <v>-18.60439219373247</v>
+        <v>-18.59910228830246</v>
       </c>
       <c r="F4" t="n">
-        <v>3.681759377556838</v>
+        <v>3.701427852182436</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.11974820595867</v>
+        <v>-9.152230767582452</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-9.305608015702598</v>
       </c>
       <c r="E5" t="n">
-        <v>-19.39890958868168</v>
+        <v>-19.39421614208944</v>
       </c>
       <c r="F5" t="n">
-        <v>3.922601633834802</v>
+        <v>3.943795478602878</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.046906892648504</v>
+        <v>-9.071899495752172</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-9.171229644580423</v>
       </c>
       <c r="E6" t="n">
-        <v>-19.96008446388678</v>
+        <v>-19.95774262959753</v>
       </c>
       <c r="F6" t="n">
-        <v>3.995007825533812</v>
+        <v>4.018401723392</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.465090630451289</v>
+        <v>-8.485766240491474</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-8.973216465089406</v>
       </c>
       <c r="E7" t="n">
-        <v>-20.6469801506746</v>
+        <v>-20.64494632381796</v>
       </c>
       <c r="F7" t="n">
-        <v>4.137361038477775</v>
+        <v>4.162226527402904</v>
       </c>
       <c r="G7" t="n">
-        <v>-8.302804936510915</v>
+        <v>-8.321588500893602</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-8.713324150503601</v>
       </c>
       <c r="E8" t="n">
-        <v>-21.1853380308318</v>
+        <v>-21.18107481684385</v>
       </c>
       <c r="F8" t="n">
-        <v>4.30352860387048</v>
+        <v>4.322972184180201</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.967350619344413</v>
+        <v>-7.985518168861869</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-8.394658922075905</v>
       </c>
       <c r="E9" t="n">
-        <v>-21.66655808773537</v>
+        <v>-21.66345845738175</v>
       </c>
       <c r="F9" t="n">
-        <v>4.43231971176562</v>
+        <v>4.450042361658187</v>
       </c>
       <c r="G9" t="n">
-        <v>-8.304560089976137</v>
+        <v>-8.322370741992309</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-8.020023788158811</v>
       </c>
       <c r="E10" t="n">
-        <v>-22.32624645130881</v>
+        <v>-22.3286127306324</v>
       </c>
       <c r="F10" t="n">
-        <v>4.818238357812419</v>
+        <v>4.836347239247472</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.065790772609745</v>
+        <v>-8.079313765603633</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-7.59807514924098</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.18509828761976</v>
+        <v>-23.18550407518971</v>
       </c>
       <c r="F11" t="n">
-        <v>4.992125665047983</v>
+        <v>5.008239831681334</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.641728094987276</v>
+        <v>-7.652865252630109</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-7.139363245636726</v>
       </c>
       <c r="E12" t="n">
-        <v>-23.95469641456831</v>
+        <v>-23.95600177940177</v>
       </c>
       <c r="F12" t="n">
-        <v>5.332757440486548</v>
+        <v>5.346075095192024</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.085310223463686</v>
+        <v>-7.095469579733136</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-6.653751822556978</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.51951848889613</v>
+        <v>-24.51924470451158</v>
       </c>
       <c r="F13" t="n">
-        <v>6.106036989605885</v>
+        <v>6.120748011268431</v>
       </c>
       <c r="G13" t="n">
-        <v>-6.824721268450253</v>
+        <v>-6.833101026220145</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-6.162074225743329</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.69492863083295</v>
+        <v>-25.69596510028873</v>
       </c>
       <c r="F14" t="n">
-        <v>6.251176936463988</v>
+        <v>6.26340923164501</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.328839079952804</v>
+        <v>-6.335229011927861</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-5.679905388998603</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.07496580161885</v>
+        <v>-26.07632005652098</v>
       </c>
       <c r="F15" t="n">
-        <v>6.507106667933252</v>
+        <v>6.51671356642674</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.806986486978302</v>
+        <v>-5.819893465106958</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-5.223657087912176</v>
       </c>
       <c r="E16" t="n">
-        <v>-27.1413682019475</v>
+        <v>-27.13431092053511</v>
       </c>
       <c r="F16" t="n">
-        <v>6.766947604896048</v>
+        <v>6.776241606950054</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.552068779930489</v>
+        <v>-5.569038522765552</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-4.811279207593425</v>
       </c>
       <c r="E17" t="n">
-        <v>-28.00082871961338</v>
+        <v>-27.9939767764894</v>
       </c>
       <c r="F17" t="n">
-        <v>7.096989791460875</v>
+        <v>7.106107789267671</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.111163473651499</v>
+        <v>-5.126329172952669</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-4.458283272106257</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.55725148014384</v>
+        <v>-28.55031886840656</v>
       </c>
       <c r="F18" t="n">
-        <v>7.500088407638013</v>
+        <v>7.506502784647405</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.955424159905923</v>
+        <v>-4.972599241029395</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-4.178372381550209</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.50334764399489</v>
+        <v>-29.4923596010615</v>
       </c>
       <c r="F19" t="n">
-        <v>7.60644386302088</v>
+        <v>7.613352029723831</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.80150355671484</v>
+        <v>-4.82611481728289</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.9838166572669</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.97467724000669</v>
+        <v>-29.96082668355272</v>
       </c>
       <c r="F20" t="n">
-        <v>7.785493961507907</v>
+        <v>7.796205775553317</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.626501555913619</v>
+        <v>-4.651557716106558</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-3.875995626308328</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.82006475140616</v>
+        <v>-30.80619708342815</v>
       </c>
       <c r="F21" t="n">
-        <v>8.108207526779228</v>
+        <v>8.116093494855562</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.533683760545239</v>
+        <v>-4.561511987631719</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-3.857335458447286</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.99412072937863</v>
+        <v>-30.97792833863541</v>
       </c>
       <c r="F22" t="n">
-        <v>8.115555704100203</v>
+        <v>8.128956471922416</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.733077016605498</v>
+        <v>-4.765554689222414</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-3.92522283995241</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.48023223765255</v>
+        <v>-31.46583655693292</v>
       </c>
       <c r="F23" t="n">
-        <v>8.154007743108489</v>
+        <v>8.167858299562457</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.527420942748721</v>
+        <v>-4.564782733225685</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-4.07203814419423</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.50553529269227</v>
+        <v>-31.48934534645248</v>
       </c>
       <c r="F24" t="n">
-        <v>8.529053237883268</v>
+        <v>8.543514920195602</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.724902597124016</v>
+        <v>-4.758416739196718</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-4.292250285579851</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.59384053472249</v>
+        <v>-31.57816882321059</v>
       </c>
       <c r="F25" t="n">
-        <v>8.475122603134329</v>
+        <v>8.489628286508465</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.551059290950255</v>
+        <v>-4.582964949763742</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-4.573305194960245</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.52602023146464</v>
+        <v>-31.51263413066303</v>
       </c>
       <c r="F26" t="n">
-        <v>8.099373091370714</v>
+        <v>8.116215720027235</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.577670155326873</v>
+        <v>-4.611443414763522</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-4.89825444876434</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.63862628212686</v>
+        <v>-31.6255726337922</v>
       </c>
       <c r="F27" t="n">
-        <v>8.293716003337449</v>
+        <v>8.312577791830007</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.359850232385211</v>
+        <v>-4.391428327738614</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-5.252927340127466</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.34318848616606</v>
+        <v>-31.33059195997345</v>
       </c>
       <c r="F28" t="n">
-        <v>8.277484500539291</v>
+        <v>8.294762250806968</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.56513963072697</v>
+        <v>-4.601631177981623</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-5.620740710822096</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.09520339085553</v>
+        <v>-31.08063903939899</v>
       </c>
       <c r="F29" t="n">
-        <v>8.106066141771519</v>
+        <v>8.127289320580799</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.456398339993047</v>
+        <v>-4.492806774130963</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-5.985630936070228</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.37217051887313</v>
+        <v>-31.35807551207581</v>
       </c>
       <c r="F30" t="n">
-        <v>7.725564515333263</v>
+        <v>7.746489464723659</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.710607141045157</v>
+        <v>-4.745675987301538</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-6.336072394141528</v>
       </c>
       <c r="E31" t="n">
-        <v>-31.0920304253989</v>
+        <v>-31.07982990876252</v>
       </c>
       <c r="F31" t="n">
-        <v>7.777515102301101</v>
+        <v>7.797144464871765</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.654109777691088</v>
+        <v>-4.687672809832459</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-6.657680825482055</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.88826395269619</v>
+        <v>-30.87105220402121</v>
       </c>
       <c r="F32" t="n">
-        <v>7.654287684220511</v>
+        <v>7.675980207689012</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.831346054630488</v>
+        <v>-4.868898516375262</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-6.942580893021978</v>
       </c>
       <c r="E33" t="n">
-        <v>-30.37858254231687</v>
+        <v>-30.363993745826</v>
       </c>
       <c r="F33" t="n">
-        <v>7.701882166069927</v>
+        <v>7.726762322015658</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.704486104447779</v>
+        <v>-4.749689861939276</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-7.186532767985476</v>
       </c>
       <c r="E34" t="n">
-        <v>-30.00414572889702</v>
+        <v>-29.9925490046087</v>
       </c>
       <c r="F34" t="n">
-        <v>7.694812662140368</v>
+        <v>7.718666126644046</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.775210477784571</v>
+        <v>-4.820125783870919</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-7.386432666913898</v>
       </c>
       <c r="E35" t="n">
-        <v>-29.7543052554805</v>
+        <v>-29.74294564802522</v>
       </c>
       <c r="F35" t="n">
-        <v>7.786901995485578</v>
+        <v>7.812569281536882</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.699958884089017</v>
+        <v>-4.743265706916149</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-7.544400469360848</v>
       </c>
       <c r="E36" t="n">
-        <v>-29.41544818953463</v>
+        <v>-29.40037293686049</v>
       </c>
       <c r="F36" t="n">
-        <v>7.878463316089161</v>
+        <v>7.902042996208293</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.86538332043795</v>
+        <v>-4.911501322213559</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-7.66544390385822</v>
       </c>
       <c r="E37" t="n">
-        <v>-29.30145610542564</v>
+        <v>-29.29208876826863</v>
       </c>
       <c r="F37" t="n">
-        <v>8.025231302233948</v>
+        <v>8.054888017888654</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.926833247748204</v>
+        <v>-4.968081798684366</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-7.752303582107924</v>
       </c>
       <c r="E38" t="n">
-        <v>-28.66332826213529</v>
+        <v>-28.65511473059888</v>
       </c>
       <c r="F38" t="n">
-        <v>7.793169702288963</v>
+        <v>7.818098748303362</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.91373559835174</v>
+        <v>-4.954945037232966</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-7.817123858819618</v>
       </c>
       <c r="E39" t="n">
-        <v>-28.34630305635363</v>
+        <v>-28.33800885620391</v>
       </c>
       <c r="F39" t="n">
-        <v>7.681284780139615</v>
+        <v>7.704595564881065</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.024496048921698</v>
+        <v>-5.062855196799513</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-7.870389946851226</v>
       </c>
       <c r="E40" t="n">
-        <v>-27.90262323867767</v>
+        <v>-27.89489860782794</v>
       </c>
       <c r="F40" t="n">
-        <v>7.722230212650027</v>
+        <v>7.746005453043835</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.86536865341735</v>
+        <v>-4.903297568690876</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-7.920588864559575</v>
       </c>
       <c r="E41" t="n">
-        <v>-27.67744047139443</v>
+        <v>-27.6702854098447</v>
       </c>
       <c r="F41" t="n">
-        <v>7.500753312571913</v>
+        <v>7.522851623610369</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.376885885875193</v>
+        <v>-5.416305948243129</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-7.981578377626417</v>
       </c>
       <c r="E42" t="n">
-        <v>-27.0422142536796</v>
+        <v>-27.03096709338227</v>
       </c>
       <c r="F42" t="n">
-        <v>7.400914903342643</v>
+        <v>7.424514139489242</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.109789662721896</v>
+        <v>-5.143636257261548</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-8.059877488353255</v>
       </c>
       <c r="E43" t="n">
-        <v>-26.68273046776222</v>
+        <v>-26.67493983531979</v>
       </c>
       <c r="F43" t="n">
-        <v>7.406752377541739</v>
+        <v>7.432536999757849</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.212551698057581</v>
+        <v>-5.249101913394637</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-8.160831472210234</v>
       </c>
       <c r="E44" t="n">
-        <v>-26.10062330965642</v>
+        <v>-26.09607164426332</v>
       </c>
       <c r="F44" t="n">
-        <v>7.503398265286914</v>
+        <v>7.528288199246378</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.322305013212954</v>
+        <v>-5.355667596072783</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-8.29166386509911</v>
       </c>
       <c r="E45" t="n">
-        <v>-25.41327294522998</v>
+        <v>-25.40564609451759</v>
       </c>
       <c r="F45" t="n">
-        <v>7.562667695534524</v>
+        <v>7.588970552478527</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.380713978251988</v>
+        <v>-5.412311629632859</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-8.454382366954368</v>
       </c>
       <c r="E46" t="n">
-        <v>-25.08995803211403</v>
+        <v>-25.08400811075699</v>
       </c>
       <c r="F46" t="n">
-        <v>7.398856631451672</v>
+        <v>7.423198996642041</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.273590948791014</v>
+        <v>-5.303501892802799</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-8.649595432359494</v>
       </c>
       <c r="E47" t="n">
-        <v>-24.8753990767526</v>
+        <v>-24.87014828337753</v>
       </c>
       <c r="F47" t="n">
-        <v>7.51270693436152</v>
+        <v>7.532947422790548</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.172280948494802</v>
+        <v>-5.203912822923742</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-8.878050757671623</v>
       </c>
       <c r="E48" t="n">
-        <v>-24.45294977139621</v>
+        <v>-24.44650606034562</v>
       </c>
       <c r="F48" t="n">
-        <v>7.486232962177175</v>
+        <v>7.508438831366703</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.123527772017927</v>
+        <v>-5.153609831270054</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-9.128826548723135</v>
       </c>
       <c r="E49" t="n">
-        <v>-23.65590964890367</v>
+        <v>-23.64988150343676</v>
       </c>
       <c r="F49" t="n">
-        <v>7.762676966460015</v>
+        <v>7.784594384244395</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.255242506019482</v>
+        <v>-5.279956435731737</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-9.39702152913067</v>
       </c>
       <c r="E50" t="n">
-        <v>-23.59862515544403</v>
+        <v>-23.59126231110245</v>
       </c>
       <c r="F50" t="n">
-        <v>7.498910156983086</v>
+        <v>7.520695571582059</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.280406224363493</v>
+        <v>-5.302587648518687</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-9.67407296223827</v>
       </c>
       <c r="E51" t="n">
-        <v>-22.92735962360974</v>
+        <v>-22.92113102886129</v>
       </c>
       <c r="F51" t="n">
-        <v>7.592368412251033</v>
+        <v>7.609484825292101</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.092775918825032</v>
+        <v>-5.117269843228276</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-9.947622056049012</v>
       </c>
       <c r="E52" t="n">
-        <v>-22.41537304649267</v>
+        <v>-22.40768263869101</v>
       </c>
       <c r="F52" t="n">
-        <v>7.428239562721831</v>
+        <v>7.446636895562031</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.292834079819191</v>
+        <v>-5.315465292606141</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-10.21036073655945</v>
       </c>
       <c r="E53" t="n">
-        <v>-22.06433257543444</v>
+        <v>-22.05646616338558</v>
       </c>
       <c r="F53" t="n">
-        <v>7.812368832255339</v>
+        <v>7.826957628746213</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.232141948573309</v>
+        <v>-5.255315841122486</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-10.45179102848763</v>
       </c>
       <c r="E54" t="n">
-        <v>-21.2942455477992</v>
+        <v>-21.29122414155545</v>
       </c>
       <c r="F54" t="n">
-        <v>7.758584867712407</v>
+        <v>7.773706565951775</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.24030170103419</v>
+        <v>-5.263949827249458</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-10.65915333089926</v>
       </c>
       <c r="E55" t="n">
-        <v>-21.02546750628369</v>
+        <v>-21.02053449835497</v>
       </c>
       <c r="F55" t="n">
-        <v>7.564681966363693</v>
+        <v>7.577520498396212</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.413357877102379</v>
+        <v>-5.432953016624974</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-10.82826702201077</v>
       </c>
       <c r="E56" t="n">
-        <v>-20.51924995726958</v>
+        <v>-20.51306536358293</v>
       </c>
       <c r="F56" t="n">
-        <v>7.442403015615283</v>
+        <v>7.460335892803127</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.440814539666973</v>
+        <v>-5.464403997799837</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-10.95374921046439</v>
       </c>
       <c r="E57" t="n">
-        <v>-20.24694694180301</v>
+        <v>-20.23827384362111</v>
       </c>
       <c r="F57" t="n">
-        <v>7.371448858955747</v>
+        <v>7.385871429213146</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.697409176070138</v>
+        <v>-5.719145700600441</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-11.03074642022721</v>
       </c>
       <c r="E58" t="n">
-        <v>-19.7641526246883</v>
+        <v>-19.75473639746262</v>
       </c>
       <c r="F58" t="n">
-        <v>7.003262640815249</v>
+        <v>7.019342584400532</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.979372869105723</v>
+        <v>-6.000591158908134</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-11.06303203513398</v>
       </c>
       <c r="E59" t="n">
-        <v>-19.2246702729517</v>
+        <v>-19.22179064790709</v>
       </c>
       <c r="F59" t="n">
-        <v>7.316941321396512</v>
+        <v>7.336013337184347</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.863268734030227</v>
+        <v>-5.88499059153993</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-11.04831797778228</v>
       </c>
       <c r="E60" t="n">
-        <v>-18.79398788003143</v>
+        <v>-18.79581636859966</v>
       </c>
       <c r="F60" t="n">
-        <v>7.169767547681771</v>
+        <v>7.189357798197499</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.121701637015351</v>
+        <v>-6.143516385655525</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-10.98981922073443</v>
       </c>
       <c r="E61" t="n">
-        <v>-18.50243684452982</v>
+        <v>-18.50459289655813</v>
       </c>
       <c r="F61" t="n">
-        <v>6.873205280141577</v>
+        <v>6.896203168443545</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.191105978498076</v>
+        <v>-6.219824004834334</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-10.8942894038523</v>
       </c>
       <c r="E62" t="n">
-        <v>-18.13936452757212</v>
+        <v>-18.14334906816865</v>
       </c>
       <c r="F62" t="n">
-        <v>7.006665389594621</v>
+        <v>7.028709921557541</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.199637295480843</v>
+        <v>-6.227255295272045</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-10.76665659814509</v>
       </c>
       <c r="E63" t="n">
-        <v>-17.56627025362548</v>
+        <v>-17.57297797104689</v>
       </c>
       <c r="F63" t="n">
-        <v>6.839060456183043</v>
+        <v>6.863182816064402</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.079059719122119</v>
+        <v>-6.109019553202574</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-10.61662808034795</v>
       </c>
       <c r="E64" t="n">
-        <v>-17.58774766079184</v>
+        <v>-17.59150241806563</v>
       </c>
       <c r="F64" t="n">
-        <v>6.656211599360424</v>
+        <v>6.67639341970705</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.237615100823038</v>
+        <v>-6.271574142520628</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-10.4553824665235</v>
       </c>
       <c r="E65" t="n">
-        <v>-17.34728185804263</v>
+        <v>-17.35190196953186</v>
       </c>
       <c r="F65" t="n">
-        <v>6.822041823279313</v>
+        <v>6.848295790154646</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.196904340642237</v>
+        <v>-6.231978075905484</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-10.28575468520442</v>
       </c>
       <c r="E66" t="n">
-        <v>-17.29807400392713</v>
+        <v>-17.30190698531079</v>
       </c>
       <c r="F66" t="n">
-        <v>6.745954209409515</v>
+        <v>6.770418799771558</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.253152364646093</v>
+        <v>-6.286260719148841</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-10.11837043381714</v>
       </c>
       <c r="E67" t="n">
-        <v>-17.1609911403857</v>
+        <v>-17.16539124656592</v>
       </c>
       <c r="F67" t="n">
-        <v>6.587002818152376</v>
+        <v>6.612983000643163</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.305982972849976</v>
+        <v>-6.340479805302928</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.959479088788056</v>
       </c>
       <c r="E68" t="n">
-        <v>-16.81808108774715</v>
+        <v>-16.8229798726278</v>
       </c>
       <c r="F68" t="n">
-        <v>6.485702595869899</v>
+        <v>6.510387191540953</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.522121077429419</v>
+        <v>-6.556217011319283</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.810157055267101</v>
       </c>
       <c r="E69" t="n">
-        <v>-16.59060537624333</v>
+        <v>-16.59434546649652</v>
       </c>
       <c r="F69" t="n">
-        <v>6.599846239191762</v>
+        <v>6.626183319183832</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.194503838270581</v>
+        <v>-6.230408704701205</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.679095048705523</v>
       </c>
       <c r="E70" t="n">
-        <v>-16.41874211785067</v>
+        <v>-16.41823855014338</v>
       </c>
       <c r="F70" t="n">
-        <v>6.559868830040998</v>
+        <v>6.587374382674262</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.098239293061027</v>
+        <v>-6.133894820141437</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.566144876644399</v>
       </c>
       <c r="E71" t="n">
-        <v>-16.50081387612557</v>
+        <v>-16.50467619155044</v>
       </c>
       <c r="F71" t="n">
-        <v>6.42226284276481</v>
+        <v>6.450579970537982</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.82033347572498</v>
+        <v>-5.862339822725513</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.469051267360292</v>
       </c>
       <c r="E72" t="n">
-        <v>-16.46708461775073</v>
+        <v>-16.47002291087774</v>
       </c>
       <c r="F72" t="n">
-        <v>6.35320073176277</v>
+        <v>6.381542304570275</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.7701918212979</v>
+        <v>-5.811200810897582</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-9.388309534320296</v>
       </c>
       <c r="E73" t="n">
-        <v>-16.42359690166952</v>
+        <v>-16.42674542209181</v>
       </c>
       <c r="F73" t="n">
-        <v>6.395588421298922</v>
+        <v>6.424027774243767</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.910491651357758</v>
+        <v>-5.95758745450675</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-9.320280471577652</v>
       </c>
       <c r="E74" t="n">
-        <v>-16.53580449827208</v>
+        <v>-16.53655251632272</v>
       </c>
       <c r="F74" t="n">
-        <v>6.288220941494603</v>
+        <v>6.312577973705573</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.572323935380118</v>
+        <v>-5.620324204799489</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-9.261118697320196</v>
       </c>
       <c r="E75" t="n">
-        <v>-16.8387175857324</v>
+        <v>-16.83926515450149</v>
       </c>
       <c r="F75" t="n">
-        <v>6.064988887951267</v>
+        <v>6.091883314726165</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.608150577700871</v>
+        <v>-5.654733035128837</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-9.211260803166427</v>
       </c>
       <c r="E76" t="n">
-        <v>-16.89700921460663</v>
+        <v>-16.90176132928127</v>
       </c>
       <c r="F76" t="n">
-        <v>5.954546222827658</v>
+        <v>5.981577541794831</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.434214380396638</v>
+        <v>-5.486463196783358</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-9.16219012513886</v>
       </c>
       <c r="E77" t="n">
-        <v>-17.04768351723808</v>
+        <v>-17.05227429468611</v>
       </c>
       <c r="F77" t="n">
-        <v>5.932286574562594</v>
+        <v>5.959205446371828</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.264717401327563</v>
+        <v>-5.317655567682519</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-9.111107560812263</v>
       </c>
       <c r="E78" t="n">
-        <v>-17.48743012888961</v>
+        <v>-17.49277381339515</v>
       </c>
       <c r="F78" t="n">
-        <v>5.865541852815471</v>
+        <v>5.895658135115667</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.859907632747006</v>
+        <v>-4.915950318462452</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-9.055433614002473</v>
       </c>
       <c r="E79" t="n">
-        <v>-17.59534517746302</v>
+        <v>-17.59898748757887</v>
       </c>
       <c r="F79" t="n">
-        <v>5.945941570741888</v>
+        <v>5.974072916254117</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.655874709170044</v>
+        <v>-4.711501829301803</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-8.99039872772121</v>
       </c>
       <c r="E80" t="n">
-        <v>-18.02074744296703</v>
+        <v>-18.0294254301558</v>
       </c>
       <c r="F80" t="n">
-        <v>5.616926075619112</v>
+        <v>5.647531258606</v>
       </c>
       <c r="G80" t="n">
-        <v>-4.191257719586516</v>
+        <v>-4.243164305492552</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-8.9181960502341</v>
       </c>
       <c r="E81" t="n">
-        <v>-18.85562358960263</v>
+        <v>-18.86634518166177</v>
       </c>
       <c r="F81" t="n">
-        <v>5.721140145994271</v>
+        <v>5.751882221173433</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.066431596260443</v>
+        <v>-4.118093731823134</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-8.839475491025242</v>
       </c>
       <c r="E82" t="n">
-        <v>-19.60174470557625</v>
+        <v>-19.6092297750895</v>
       </c>
       <c r="F82" t="n">
-        <v>5.473604839315501</v>
+        <v>5.501169060031167</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.975500957542693</v>
+        <v>-4.028370677801511</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-8.751249816860279</v>
       </c>
       <c r="E83" t="n">
-        <v>-20.35620157825796</v>
+        <v>-20.36687916925531</v>
       </c>
       <c r="F83" t="n">
-        <v>5.148314767425314</v>
+        <v>5.179751081579577</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.885743680473001</v>
+        <v>-3.939884542517217</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-8.657199640456833</v>
       </c>
       <c r="E84" t="n">
-        <v>-21.48255542529217</v>
+        <v>-21.48896980230156</v>
       </c>
       <c r="F84" t="n">
-        <v>5.03704097113433</v>
+        <v>5.066903025077447</v>
       </c>
       <c r="G84" t="n">
-        <v>-3.549991133887617</v>
+        <v>-3.605476472820234</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-8.558806814539894</v>
       </c>
       <c r="E85" t="n">
-        <v>-22.52539036801886</v>
+        <v>-22.53408302222823</v>
       </c>
       <c r="F85" t="n">
-        <v>5.146843176358373</v>
+        <v>5.178714612123792</v>
       </c>
       <c r="G85" t="n">
-        <v>-3.608835220537805</v>
+        <v>-3.661088925931392</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-8.455461098008341</v>
       </c>
       <c r="E86" t="n">
-        <v>-23.34875779248974</v>
+        <v>-23.35454637662016</v>
       </c>
       <c r="F86" t="n">
-        <v>4.784616657588645</v>
+        <v>4.814752495916308</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.547663966618965</v>
+        <v>-3.597830066080379</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-8.354198635352381</v>
       </c>
       <c r="E87" t="n">
-        <v>-24.06077808556663</v>
+        <v>-24.06680134202667</v>
       </c>
       <c r="F87" t="n">
-        <v>4.528686926119381</v>
+        <v>4.560773478186944</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.537304161067973</v>
+        <v>-3.592285932293298</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-8.253427373124497</v>
       </c>
       <c r="E88" t="n">
-        <v>-25.3919324302559</v>
+        <v>-25.39657698677946</v>
       </c>
       <c r="F88" t="n">
-        <v>4.593534713202141</v>
+        <v>4.62141183035729</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.497825430617634</v>
+        <v>-3.552372080231804</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-8.1529199900521</v>
       </c>
       <c r="E89" t="n">
-        <v>-26.82358520010147</v>
+        <v>-26.82562391596497</v>
       </c>
       <c r="F89" t="n">
-        <v>4.067286903054283</v>
+        <v>4.095985373363074</v>
       </c>
       <c r="G89" t="n">
-        <v>-3.499003681272561</v>
+        <v>-3.551922291600048</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-8.053404950734521</v>
       </c>
       <c r="E90" t="n">
-        <v>-28.18608052331109</v>
+        <v>-28.18756189239177</v>
       </c>
       <c r="F90" t="n">
-        <v>4.244928967563637</v>
+        <v>4.273994113387447</v>
       </c>
       <c r="G90" t="n">
-        <v>-3.497561424246821</v>
+        <v>-3.549096445630971</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-7.952767374819985</v>
       </c>
       <c r="E91" t="n">
-        <v>-30.02172415308701</v>
+        <v>-30.01962188013424</v>
       </c>
       <c r="F91" t="n">
-        <v>3.760443054072967</v>
+        <v>3.786667686907098</v>
       </c>
       <c r="G91" t="n">
-        <v>-3.849662809795169</v>
+        <v>-3.901163608131251</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-7.85187728143579</v>
       </c>
       <c r="E92" t="n">
-        <v>-31.72218674299274</v>
+        <v>-31.72392234043049</v>
       </c>
       <c r="F92" t="n">
-        <v>3.447551503597277</v>
+        <v>3.472500105639144</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.912540327110562</v>
+        <v>-3.959665464300755</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-7.753348710155954</v>
       </c>
       <c r="E93" t="n">
-        <v>-33.38107321850222</v>
+        <v>-33.38459574794982</v>
       </c>
       <c r="F93" t="n">
-        <v>3.153639077778951</v>
+        <v>3.176998752589071</v>
       </c>
       <c r="G93" t="n">
-        <v>-4.312426865776136</v>
+        <v>-4.360427135195507</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-7.652984287360442</v>
       </c>
       <c r="E94" t="n">
-        <v>-35.29305135699471</v>
+        <v>-35.29393382273419</v>
       </c>
       <c r="F94" t="n">
-        <v>2.70649050973091</v>
+        <v>2.726466991789124</v>
       </c>
       <c r="G94" t="n">
-        <v>-4.336104326032605</v>
+        <v>-4.385106841859693</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-7.55436334813944</v>
       </c>
       <c r="E95" t="n">
-        <v>-37.51124021807926</v>
+        <v>-37.51082954150244</v>
       </c>
       <c r="F95" t="n">
-        <v>2.118562988950053</v>
+        <v>2.134574486439199</v>
       </c>
       <c r="G95" t="n">
-        <v>-4.547852102445558</v>
+        <v>-4.596756838135309</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-7.460188837284905</v>
       </c>
       <c r="E96" t="n">
-        <v>-39.44318750511967</v>
+        <v>-39.44242726455187</v>
       </c>
       <c r="F96" t="n">
-        <v>1.927300151309473</v>
+        <v>1.944837018941097</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.856680888214842</v>
+        <v>-4.900070824158712</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-7.370955486722718</v>
       </c>
       <c r="E97" t="n">
-        <v>-41.56310977268266</v>
+        <v>-41.56340066859124</v>
       </c>
       <c r="F97" t="n">
-        <v>1.32442204752959</v>
+        <v>1.336952572129493</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.301208948582217</v>
+        <v>-5.342682393834256</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-7.296209841930479</v>
       </c>
       <c r="E98" t="n">
-        <v>-43.49807602146339</v>
+        <v>-43.50176722164791</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9492641055968716</v>
+        <v>0.9610612791667373</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.572451049558658</v>
+        <v>-5.618852613732548</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-7.238514129028474</v>
       </c>
       <c r="E99" t="n">
-        <v>-46.00077574816119</v>
+        <v>-46.00921906302035</v>
       </c>
       <c r="F99" t="n">
-        <v>0.7762274855561508</v>
+        <v>0.7884842257715066</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.899941174538956</v>
+        <v>-5.94964770735488</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-7.203295566171216</v>
       </c>
       <c r="E100" t="n">
-        <v>-48.5736901692299</v>
+        <v>-48.57787515910798</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.1012808009589456</v>
+        <v>-0.09162012338992162</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.221760051553632</v>
+        <v>-6.266919807983325</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-7.191967841834047</v>
       </c>
       <c r="E101" t="n">
-        <v>-50.48545930267883</v>
+        <v>-50.49237969189895</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.2372391929209834</v>
+        <v>-0.2297687904283373</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.684582775617002</v>
+        <v>-6.731536797566854</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-7.213975501073272</v>
       </c>
       <c r="E102" t="n">
-        <v>-52.79712719731052</v>
+        <v>-52.80630508545143</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.656197747374393</v>
+        <v>-0.6507171706765813</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.999156144454911</v>
+        <v>-7.044350123932673</v>
       </c>
     </row>
   </sheetData>
